--- a/Computational-books&papers/private/807.xlsx
+++ b/Computational-books&papers/private/807.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/Rosters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E7F2D1-E446-469F-8DDE-04B588BB1714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F4BB84-B8B6-4C44-B20D-0E42E511E27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="495" windowWidth="18150" windowHeight="13380"/>
+    <workbookView xWindow="255" yWindow="1095" windowWidth="14250" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="ps (7)" sheetId="1" r:id="rId1"/>
+    <sheet name="ps (23)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>Notify</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>John,Mohan</t>
+    <t>Johnson,Henry</t>
   </si>
   <si>
     <t>Francis College of Engineering - Mechanical Engineering (BSE)</t>
@@ -88,9 +88,6 @@
     <t>Junior</t>
   </si>
   <si>
-    <t>Johnson,Henry</t>
-  </si>
-  <si>
     <t>Kelley,Annie</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>Stearns,Ben Russell</t>
-  </si>
-  <si>
-    <t>Tau,Nathan</t>
   </si>
   <si>
     <t>Weaver,Devin J</t>
@@ -1010,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1802685</v>
+        <v>1772186</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -1190,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1772186</v>
+        <v>1757287</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -1212,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1757287</v>
+        <v>1730633</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -1222,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>21</v>
@@ -1234,20 +1228,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>1730633</v>
+        <v>1844931</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1256,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1844931</v>
+        <v>1737275</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -1278,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1737275</v>
+        <v>1834905</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -1288,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1300,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1834905</v>
+        <v>1858056</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
@@ -1322,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1858056</v>
+        <v>1559885</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1332,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1344,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1559885</v>
+        <v>1874736</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -1357,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1366,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>1874736</v>
+        <v>1781315</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
@@ -1376,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1388,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1796743</v>
+        <v>1584916</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -1398,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1410,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>1781315</v>
+        <v>1824504</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3">
@@ -1423,50 +1417,6 @@
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1584916</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1824504</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1675,7 +1625,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9AA4E0-9C42-4948-B02E-39C8869807A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48BA519-0E24-4CE6-AAF4-77FFE98E4F0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1693,7 +1643,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5D7427-1831-49B1-AAB3-8966E5211B63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A68D9F8-0D65-483A-AEB2-4EFC7F612132}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1701,17 +1651,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68D9ED-48AA-419C-AEEC-89F0B895333E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33BF5A76-B8CA-43DD-BD21-5EC8FC2E1AA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>